--- a/Assets/StreamingAssets/story/1.xlsx
+++ b/Assets/StreamingAssets/story/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>安妮</t>
+  </si>
+  <si>
+    <t>你好，[Name]。</t>
   </si>
   <si>
     <t>Annie</t>
@@ -85,7 +88,10 @@
     <t>一です</t>
   </si>
   <si>
-    <t>贝拉</t>
+    <t>[Name]</t>
+  </si>
+  <si>
+    <t>我很好，安妮。</t>
   </si>
   <si>
     <t>Bella</t>
@@ -93,7 +99,7 @@
   <si>
     <t>Bella
 appearAt
-0.2
+0.6
 smile</t>
   </si>
   <si>
@@ -106,6 +112,24 @@
     <t>二です</t>
   </si>
   <si>
+    <t>你好，贝拉。</t>
+  </si>
+  <si>
+    <t>Annie
+moveTo
+600
+smile</t>
+  </si>
+  <si>
+    <t>贝拉</t>
+  </si>
+  <si>
+    <t>Bella
+moveTo
+-600
+smile</t>
+  </si>
+  <si>
     <t>跳转文件</t>
   </si>
   <si>
@@ -118,16 +142,18 @@
     <t>Choice</t>
   </si>
   <si>
-    <t>今天天气不错
-二
-三
-四</t>
+    <t>选项一（安妮好感+50）
+选项二（安妮好感-25，BOb+25）
+选项三（触发条件安妮好感在100，200之间）
+选项四（触发条件Bob好感在50，100之间）
+选项五（我要玩小游戏！！！）</t>
   </si>
   <si>
     <t>1
 2
 3
-4</t>
+4
+5</t>
   </si>
   <si>
     <t xml:space="preserve">Annie:+50
@@ -135,9 +161,10 @@
 </t>
   </si>
   <si>
-    <t>Annie:0,100;Bob:-50,50
+    <t xml:space="preserve">Annie:0,100;Bob:-50,50
 Annie:100,200
-Bob:50,100</t>
+Bob:50,100
+</t>
   </si>
 </sst>
 </file>
@@ -1088,15 +1115,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="16.3240740740741" customWidth="1"/>
+    <col min="2" max="2" width="43.0740740740741" customWidth="1"/>
     <col min="4" max="4" width="23.1574074074074" customWidth="1"/>
     <col min="5" max="5" width="34.0925925925926" customWidth="1"/>
   </cols>
@@ -1140,11 +1167,11 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1156,30 +1183,30 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:11">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1191,48 +1218,118 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="57.6" spans="1:11">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:11">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
+    <row r="6" spans="1:11">
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:5">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
+    <row r="7" ht="72" spans="1:11">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
